--- a/itens_conf/Tabela_estimativa_Projecto_00.xlsx
+++ b/itens_conf/Tabela_estimativa_Projecto_00.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machanguele\Desktop\software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projecto\itens_conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7256C711-6FBB-4F98-AD92-D21AE6DC1FD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9330" windowHeight="8580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,6 +326,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -332,15 +342,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -360,13 +361,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E29" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="B2:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:E29" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Requisito" dataDxfId="3"/>
-    <tableColumn id="2" name="pontos" dataDxfId="2"/>
-    <tableColumn id="3" name="Horas" dataDxfId="1"/>
-    <tableColumn id="4" name="Estimativa de esforco" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requisito" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pontos" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Horas" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estimativa de esforco" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Horas]]*Table1[[#This Row],[pontos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -636,18 +637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -972,7 +974,10 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11">
+        <f>SUM(D4:D21)</f>
+        <v>300</v>
+      </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
